--- a/data/nma_contrib_c.xlsx
+++ b/data/nma_contrib_c.xlsx
@@ -1,80 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PC LAB/DissAnalysis/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD67FDCE8F79A8D366075C52F33A6A70B304D00E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B05878C4-071B-4BFB-A64F-22CC9F1F34CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
-  <si>
-    <t>comp</t>
-  </si>
-  <si>
-    <t>amitriptilina vs imipramina</t>
-  </si>
-  <si>
-    <t>amitriptilina vs veículo</t>
-  </si>
-  <si>
-    <t>citalopram vs veículo</t>
-  </si>
-  <si>
-    <t>fluoxetina vs veículo</t>
-  </si>
-  <si>
-    <t>imipramina vs veículo</t>
-  </si>
-  <si>
-    <t>nortriptilina vs veículo</t>
-  </si>
-  <si>
-    <t>amitriptilina vs citalopram</t>
-  </si>
-  <si>
-    <t>amitriptilina vs fluoxetina</t>
-  </si>
-  <si>
-    <t>amitriptilina vs nortriptilina</t>
-  </si>
-  <si>
-    <t>citalopram vs fluoxetina</t>
-  </si>
-  <si>
-    <t>citalopram vs imipramina</t>
-  </si>
-  <si>
-    <t>citalopram vs nortriptilina</t>
-  </si>
-  <si>
-    <t>fluoxetina vs imipramina</t>
-  </si>
-  <si>
-    <t>fluoxetina vs nortriptilina</t>
-  </si>
-  <si>
-    <t>imipramina vs nortriptilina</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,19 +63,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,238 +350,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>comp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>amitriptilina vs imipramina</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>amitriptilina vs veículo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>citalopram vs veículo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fluoxetina vs veículo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>imipramina vs veículo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>nortriptilina vs veículo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>amitriptilina vs citalopram</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.1511848283917633</v>
+      </c>
+      <c r="C2">
+        <v>0.2732227574123547</v>
+      </c>
+      <c r="D2">
+        <v>0.4244075858041181</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.1511848283917633</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>amitriptilina vs fluoxetina</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.1511848283917633</v>
+      </c>
+      <c r="C3">
+        <v>0.2732227574123548</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.4244075858041181</v>
+      </c>
+      <c r="F3">
+        <v>0.1511848283917633</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>amitriptilina vs imipramina</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.5480894520895122</v>
+      </c>
+      <c r="C4">
+        <v>0.2259552739552439</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.2259552739552439</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>amitriptilina vs nortriptilina</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.1511848283917633</v>
+      </c>
+      <c r="C5">
+        <v>0.2732227574123548</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.1511848283917633</v>
+      </c>
+      <c r="G5">
+        <v>0.4244075858041181</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>amitriptilina vs veículo</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>0.226777242587645</v>
+      </c>
+      <c r="C6">
+        <v>0.5464455148247096</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.226777242587645</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>citalopram vs fluoxetina</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>citalopram vs imipramina</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.03151165563807391</v>
+      </c>
+      <c r="C8">
+        <v>0.03151165563807391</v>
+      </c>
+      <c r="D8">
+        <v>0.4842441721809631</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.4527325165428892</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>citalopram vs nortriptilina</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.4999999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>citalopram vs veículo</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.15268455075613621</v>
-      </c>
-      <c r="C2">
-        <v>0.27097317386579561</v>
-      </c>
-      <c r="D2">
-        <v>0.42365772462193169</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.15268455075613621</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.15268455075613621</v>
-      </c>
-      <c r="C3">
-        <v>0.27097317386579561</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.42365772462193169</v>
-      </c>
-      <c r="F3">
-        <v>0.15268455075613621</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.5420058753281477</v>
-      </c>
-      <c r="C4">
-        <v>0.2289970623359262</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.2289970623359262</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.15268455075613621</v>
-      </c>
-      <c r="C5">
-        <v>0.27097317386579561</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.15268455075613621</v>
-      </c>
-      <c r="G5">
-        <v>0.42365772462193169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.2290268261342043</v>
-      </c>
-      <c r="C6">
-        <v>0.54194634773159112</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.2290268261342043</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="E7">
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>2.7984074353246239E-2</v>
-      </c>
-      <c r="C8">
-        <v>2.7984074353246239E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.48600796282337683</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.45802388847013048</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.49999999999999978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0.99999999999999978</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -695,32 +619,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fluoxetina vs imipramina</t>
+        </is>
       </c>
       <c r="B11">
-        <v>2.7984074353246239E-2</v>
+        <v>0.03151165563807395</v>
       </c>
       <c r="C11">
-        <v>2.7984074353246239E-2</v>
+        <v>0.03151165563807395</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.48600796282337688</v>
+        <v>0.4842441721809631</v>
       </c>
       <c r="F11">
-        <v>0.4580238884701307</v>
+        <v>0.4527325165428892</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>fluoxetina vs nortriptilina</t>
+        </is>
       </c>
       <c r="B12">
         <v>0</v>
@@ -741,9 +669,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>fluoxetina vs veículo</t>
+        </is>
       </c>
       <c r="B13">
         <v>0</v>
@@ -764,15 +694,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>imipramina vs nortriptilina</t>
+        </is>
       </c>
       <c r="B14">
-        <v>2.798407435324626E-2</v>
+        <v>0.03151165563807393</v>
       </c>
       <c r="C14">
-        <v>2.798407435324626E-2</v>
+        <v>0.03151165563807393</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -781,21 +713,23 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.45802388847013048</v>
+        <v>0.452732516542889</v>
       </c>
       <c r="G14">
-        <v>0.48600796282337683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
+        <v>0.4842441721809629</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>imipramina vs veículo</t>
+        </is>
       </c>
       <c r="B15">
-        <v>4.1976111529869409E-2</v>
+        <v>0.04726748345711092</v>
       </c>
       <c r="C15">
-        <v>4.1976111529869409E-2</v>
+        <v>0.04726748345711092</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -804,15 +738,17 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.91604777694026107</v>
+        <v>0.9054650330857782</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nortriptilina vs veículo</t>
+        </is>
       </c>
       <c r="B16">
         <v>0</v>

--- a/data/nma_contrib_c.xlsx
+++ b/data/nma_contrib_c.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.1511848283917633</v>
+        <v>0.1513143487710279</v>
       </c>
       <c r="C2">
-        <v>0.2732227574123547</v>
+        <v>0.2730284768434579</v>
       </c>
       <c r="D2">
-        <v>0.4244075858041181</v>
+        <v>0.4243428256144858</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1511848283917633</v>
+        <v>0.1513143487710279</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -426,19 +426,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1511848283917633</v>
+        <v>0.151314348771028</v>
       </c>
       <c r="C3">
-        <v>0.2732227574123548</v>
+        <v>0.2730284768434579</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4244075858041181</v>
+        <v>0.4243428256144859</v>
       </c>
       <c r="F3">
-        <v>0.1511848283917633</v>
+        <v>0.151314348771028</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -451,10 +451,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5480894520895122</v>
+        <v>0.5477608887565193</v>
       </c>
       <c r="C4">
-        <v>0.2259552739552439</v>
+        <v>0.2261195556217403</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2259552739552439</v>
+        <v>0.2261195556217403</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.1511848283917633</v>
+        <v>0.151314348771028</v>
       </c>
       <c r="C5">
-        <v>0.2732227574123548</v>
+        <v>0.2730284768434579</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1511848283917633</v>
+        <v>0.151314348771028</v>
       </c>
       <c r="G5">
-        <v>0.4244075858041181</v>
+        <v>0.424342825614486</v>
       </c>
     </row>
     <row r="6">
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.226777242587645</v>
+        <v>0.2269715231565421</v>
       </c>
       <c r="C6">
-        <v>0.5464455148247096</v>
+        <v>0.546056953686916</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.226777242587645</v>
+        <v>0.2269715231565421</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.03151165563807391</v>
+        <v>0.03127261414781171</v>
       </c>
       <c r="C8">
-        <v>0.03151165563807391</v>
+        <v>0.03127261414781171</v>
       </c>
       <c r="D8">
-        <v>0.4842441721809631</v>
+        <v>0.4843636929260938</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4527325165428892</v>
+        <v>0.4530910787782821</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4999999999999999</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4999999999999999</v>
+        <v>0.4999999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.03151165563807395</v>
+        <v>0.03127261414781165</v>
       </c>
       <c r="C11">
-        <v>0.03151165563807395</v>
+        <v>0.03127261414781165</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4842441721809631</v>
+        <v>0.4843636929260943</v>
       </c>
       <c r="F11">
-        <v>0.4527325165428892</v>
+        <v>0.4530910787782826</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.03151165563807393</v>
+        <v>0.03127261414781168</v>
       </c>
       <c r="C14">
-        <v>0.03151165563807393</v>
+        <v>0.03127261414781168</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.452732516542889</v>
+        <v>0.4530910787782825</v>
       </c>
       <c r="G14">
-        <v>0.4842441721809629</v>
+        <v>0.4843636929260942</v>
       </c>
     </row>
     <row r="15">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.04726748345711092</v>
+        <v>0.04690892122171759</v>
       </c>
       <c r="C15">
-        <v>0.04726748345711092</v>
+        <v>0.04690892122171759</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9054650330857782</v>
+        <v>0.9061821575565647</v>
       </c>
       <c r="G15">
         <v>0</v>
